--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV095-001 - Setup Profile Bank Investasi - Pasar Uang Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV095-001 - Setup Profile Bank Investasi - Pasar Uang Hapus Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3AF56-A304-414B-BAED-349503E1A145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF34C0-3A26-4E2A-A2AC-4C25287207B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,22 +85,22 @@
     <t>Analisis Investasi</t>
   </si>
   <si>
+    <t>DPLKINV095-001</t>
+  </si>
+  <si>
+    <t>Hapus Setup - Setup Profile Bank</t>
+  </si>
+  <si>
+    <t>Hapus dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>PAU0228</t>
+  </si>
+  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
-Bank ID : Sesuai hasil generate</t>
-  </si>
-  <si>
-    <t>DPLKINV095-001</t>
-  </si>
-  <si>
-    <t>Hapus Setup - Setup Profile Bank</t>
-  </si>
-  <si>
-    <t>Hapus dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>PAU0226</t>
+Bank ID : PAU0228</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,19 +566,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>31246</v>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
